--- a/po_analysis_by_asin/B083NN4MLZ_po_data.xlsx
+++ b/po_analysis_by_asin/B083NN4MLZ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45362</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>12</v>
       </c>
     </row>
@@ -469,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +651,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44985.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>12</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083NN4MLZ_po_data.xlsx
+++ b/po_analysis_by_asin/B083NN4MLZ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,14 +610,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B22" t="n">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -629,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,14 +705,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B083NN4MLZ_po_data.xlsx
+++ b/po_analysis_by_asin/B083NN4MLZ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -637,7 +638,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -703,6 +704,439 @@
       </c>
       <c r="B9" t="n">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.859466879760501</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.45518748620167</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-9.013252782989085</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.81274829497256</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-9.877070111673635</v>
+      </c>
+      <c r="D4" t="n">
+        <v>58.3106676224044</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>26</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-7.608703577376155</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.87162481363443</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-9.710409855600941</v>
+      </c>
+      <c r="D6" t="n">
+        <v>58.74481499527687</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-6.245608578719798</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60.2625451315505</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.587248736824725</v>
+      </c>
+      <c r="D8" t="n">
+        <v>59.43457334080736</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-13.25822567494337</v>
+      </c>
+      <c r="D9" t="n">
+        <v>55.24832218105306</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-10.05146176257137</v>
+      </c>
+      <c r="D10" t="n">
+        <v>53.53560249274278</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-16.26849519156966</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.55929724408033</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-18.73086466730934</v>
+      </c>
+      <c r="D12" t="n">
+        <v>51.88106310123747</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-18.79976793733841</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50.11867481124893</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-21.51733112947945</v>
+      </c>
+      <c r="D14" t="n">
+        <v>48.23162656402737</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-15.89627367469555</v>
+      </c>
+      <c r="D15" t="n">
+        <v>48.29351199916555</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-20.75579191981328</v>
+      </c>
+      <c r="D16" t="n">
+        <v>48.58280818949674</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-19.90340041045075</v>
+      </c>
+      <c r="D17" t="n">
+        <v>46.84390462361037</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-20.60661712413317</v>
+      </c>
+      <c r="D18" t="n">
+        <v>49.59659088603564</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-19.56113254680215</v>
+      </c>
+      <c r="D19" t="n">
+        <v>47.49629992835307</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-22.01654750982051</v>
+      </c>
+      <c r="D20" t="n">
+        <v>44.82279798905702</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-22.7500355169263</v>
+      </c>
+      <c r="D21" t="n">
+        <v>44.15650401500737</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-21.93087490999667</v>
+      </c>
+      <c r="D22" t="n">
+        <v>46.21521874229221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-24.42110560384414</v>
+      </c>
+      <c r="D23" t="n">
+        <v>45.33380417407116</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-21.71382147057915</v>
+      </c>
+      <c r="D24" t="n">
+        <v>45.03969915865344</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-23.53141996987424</v>
+      </c>
+      <c r="D25" t="n">
+        <v>42.53500276819859</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-24.31350362776088</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42.42415893279321</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-24.83923331736835</v>
+      </c>
+      <c r="D27" t="n">
+        <v>41.32349133371185</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-27.75041177026052</v>
+      </c>
+      <c r="D28" t="n">
+        <v>42.13301190845603</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-25.57717207581939</v>
+      </c>
+      <c r="D29" t="n">
+        <v>41.480575037649</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083NN4MLZ_po_data.xlsx
+++ b/po_analysis_by_asin/B083NN4MLZ_po_data.xlsx
@@ -717,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,16 +736,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -754,12 +744,6 @@
       <c r="B2" t="n">
         <v>27</v>
       </c>
-      <c r="C2" t="n">
-        <v>-7.859466879760501</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61.45518748620167</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -768,12 +752,6 @@
       <c r="B3" t="n">
         <v>27</v>
       </c>
-      <c r="C3" t="n">
-        <v>-9.013252782989085</v>
-      </c>
-      <c r="D3" t="n">
-        <v>59.81274829497256</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -782,12 +760,6 @@
       <c r="B4" t="n">
         <v>26</v>
       </c>
-      <c r="C4" t="n">
-        <v>-9.877070111673635</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.3106676224044</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -796,12 +768,6 @@
       <c r="B5" t="n">
         <v>26</v>
       </c>
-      <c r="C5" t="n">
-        <v>-7.608703577376155</v>
-      </c>
-      <c r="D5" t="n">
-        <v>61.87162481363443</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -810,12 +776,6 @@
       <c r="B6" t="n">
         <v>25</v>
       </c>
-      <c r="C6" t="n">
-        <v>-9.710409855600941</v>
-      </c>
-      <c r="D6" t="n">
-        <v>58.74481499527687</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -824,12 +784,6 @@
       <c r="B7" t="n">
         <v>25</v>
       </c>
-      <c r="C7" t="n">
-        <v>-6.245608578719798</v>
-      </c>
-      <c r="D7" t="n">
-        <v>60.2625451315505</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -838,12 +792,6 @@
       <c r="B8" t="n">
         <v>24</v>
       </c>
-      <c r="C8" t="n">
-        <v>-7.587248736824725</v>
-      </c>
-      <c r="D8" t="n">
-        <v>59.43457334080736</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -852,12 +800,6 @@
       <c r="B9" t="n">
         <v>24</v>
       </c>
-      <c r="C9" t="n">
-        <v>-13.25822567494337</v>
-      </c>
-      <c r="D9" t="n">
-        <v>55.24832218105306</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -866,12 +808,6 @@
       <c r="B10" t="n">
         <v>23</v>
       </c>
-      <c r="C10" t="n">
-        <v>-10.05146176257137</v>
-      </c>
-      <c r="D10" t="n">
-        <v>53.53560249274278</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -880,12 +816,6 @@
       <c r="B11" t="n">
         <v>18</v>
       </c>
-      <c r="C11" t="n">
-        <v>-16.26849519156966</v>
-      </c>
-      <c r="D11" t="n">
-        <v>51.55929724408033</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -894,12 +824,6 @@
       <c r="B12" t="n">
         <v>17</v>
       </c>
-      <c r="C12" t="n">
-        <v>-18.73086466730934</v>
-      </c>
-      <c r="D12" t="n">
-        <v>51.88106310123747</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -908,12 +832,6 @@
       <c r="B13" t="n">
         <v>17</v>
       </c>
-      <c r="C13" t="n">
-        <v>-18.79976793733841</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50.11867481124893</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -922,12 +840,6 @@
       <c r="B14" t="n">
         <v>16</v>
       </c>
-      <c r="C14" t="n">
-        <v>-21.51733112947945</v>
-      </c>
-      <c r="D14" t="n">
-        <v>48.23162656402737</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -936,12 +848,6 @@
       <c r="B15" t="n">
         <v>15</v>
       </c>
-      <c r="C15" t="n">
-        <v>-15.89627367469555</v>
-      </c>
-      <c r="D15" t="n">
-        <v>48.29351199916555</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -950,12 +856,6 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="n">
-        <v>-20.75579191981328</v>
-      </c>
-      <c r="D16" t="n">
-        <v>48.58280818949674</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -964,12 +864,6 @@
       <c r="B17" t="n">
         <v>14</v>
       </c>
-      <c r="C17" t="n">
-        <v>-19.90340041045075</v>
-      </c>
-      <c r="D17" t="n">
-        <v>46.84390462361037</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -978,12 +872,6 @@
       <c r="B18" t="n">
         <v>14</v>
       </c>
-      <c r="C18" t="n">
-        <v>-20.60661712413317</v>
-      </c>
-      <c r="D18" t="n">
-        <v>49.59659088603564</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -992,12 +880,6 @@
       <c r="B19" t="n">
         <v>13</v>
       </c>
-      <c r="C19" t="n">
-        <v>-19.56113254680215</v>
-      </c>
-      <c r="D19" t="n">
-        <v>47.49629992835307</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1006,12 +888,6 @@
       <c r="B20" t="n">
         <v>13</v>
       </c>
-      <c r="C20" t="n">
-        <v>-22.01654750982051</v>
-      </c>
-      <c r="D20" t="n">
-        <v>44.82279798905702</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1020,12 +896,6 @@
       <c r="B21" t="n">
         <v>12</v>
       </c>
-      <c r="C21" t="n">
-        <v>-22.7500355169263</v>
-      </c>
-      <c r="D21" t="n">
-        <v>44.15650401500737</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1034,12 +904,6 @@
       <c r="B22" t="n">
         <v>11</v>
       </c>
-      <c r="C22" t="n">
-        <v>-21.93087490999667</v>
-      </c>
-      <c r="D22" t="n">
-        <v>46.21521874229221</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1048,12 +912,6 @@
       <c r="B23" t="n">
         <v>11</v>
       </c>
-      <c r="C23" t="n">
-        <v>-24.42110560384414</v>
-      </c>
-      <c r="D23" t="n">
-        <v>45.33380417407116</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1062,12 +920,6 @@
       <c r="B24" t="n">
         <v>11</v>
       </c>
-      <c r="C24" t="n">
-        <v>-21.71382147057915</v>
-      </c>
-      <c r="D24" t="n">
-        <v>45.03969915865344</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1076,12 +928,6 @@
       <c r="B25" t="n">
         <v>10</v>
       </c>
-      <c r="C25" t="n">
-        <v>-23.53141996987424</v>
-      </c>
-      <c r="D25" t="n">
-        <v>42.53500276819859</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1090,12 +936,6 @@
       <c r="B26" t="n">
         <v>10</v>
       </c>
-      <c r="C26" t="n">
-        <v>-24.31350362776088</v>
-      </c>
-      <c r="D26" t="n">
-        <v>42.42415893279321</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1104,12 +944,6 @@
       <c r="B27" t="n">
         <v>9</v>
       </c>
-      <c r="C27" t="n">
-        <v>-24.83923331736835</v>
-      </c>
-      <c r="D27" t="n">
-        <v>41.32349133371185</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1118,12 +952,6 @@
       <c r="B28" t="n">
         <v>9</v>
       </c>
-      <c r="C28" t="n">
-        <v>-27.75041177026052</v>
-      </c>
-      <c r="D28" t="n">
-        <v>42.13301190845603</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1131,12 +959,6 @@
       </c>
       <c r="B29" t="n">
         <v>9</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-25.57717207581939</v>
-      </c>
-      <c r="D29" t="n">
-        <v>41.480575037649</v>
       </c>
     </row>
   </sheetData>
